--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,431 +483,405 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.18.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2074</v>
+        <v>973</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1498</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.5</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>876</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>4514</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
+      <c r="B9" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4124</v>
+      </c>
+    </row>
     <row r="10"/>
     <row r="11"/>
     <row r="12"/>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>30446</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>18721</v>
+        <v>34181</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>12096</v>
+        <v>96526</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>69578</v>
+        <v>328411</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>319198</v>
+        <v>143808</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>143214</v>
+        <v>287148</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
+      <c r="E21" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>287148</v>
+        <v>69578</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>19083</v>
+        <v>56018</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
+      <c r="E23" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>96526</v>
+        <v>34244</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>12988</v>
+        <v>67111</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="E25" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>18738</v>
+        <v>13016</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>42024</v>
+        <v>10456</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
+      <c r="E27" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>64199</v>
+        <v>288399</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>15504</v>
+        <v>442178</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>167965</v>
+        <v>156943</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>66339</v>
+        <v>18721</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
@@ -918,7 +892,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>63516</v>
+        <v>66577</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -926,18 +900,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>15730</v>
+        <v>18738</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -945,18 +919,18 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>50749</v>
+        <v>13533</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -964,18 +938,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>26241</v>
+        <v>17529</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -983,18 +957,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2023-09-13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>161874</v>
+        <v>19083</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -1002,37 +976,37 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>88435</v>
+        <v>12988</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>134716</v>
+        <v>42024</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1040,18 +1014,18 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>13016</v>
+        <v>123675</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1059,37 +1033,37 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>20227</v>
+        <v>77849</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>34065</v>
+        <v>15504</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1097,18 +1071,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>44271</v>
+        <v>26241</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1116,56 +1090,56 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>48540</v>
+        <v>15730</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>184564</v>
+        <v>59673</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>14221</v>
+        <v>113652</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1173,34 +1147,110 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>23765</v>
+        <v>88435</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>180575</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>138724</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>35023</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>2018-03-26</t>
+        </is>
+      </c>
+    </row>
     <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,33 +483,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>973</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>106</v>
+        <v>861</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.3</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -547,14 +547,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1485</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>98.59999999999999</v>
@@ -563,96 +563,95 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>876</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="B9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>870</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>4124</v>
-      </c>
-    </row>
-    <row r="10"/>
+      <c r="B10" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3875</v>
+      </c>
+    </row>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>34181</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>96526</v>
+        <v>156943</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="n">
         <v/>
@@ -661,15 +660,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>328411</v>
+        <v>292215</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="n">
         <v/>
@@ -678,259 +677,277 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>143808</v>
+        <v>34181</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>287148</v>
+        <v>445055</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>69578</v>
+        <v>18721</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>56018</v>
+        <v>13533</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>34244</v>
+        <v>69578</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>67111</v>
+        <v>329845</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>13016</v>
+        <v>143808</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>10456</v>
+        <v>287148</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>288399</v>
+        <v>10456</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>442178</v>
+        <v>19083</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>156943</v>
+        <v>96526</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>18721</v>
+        <v>12988</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>66577</v>
+        <v>18738</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>18738</v>
+        <v>42024</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>13533</v>
+        <v>123675</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -938,7 +955,7 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
@@ -957,37 +974,37 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>19083</v>
+        <v>77849</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>12988</v>
+        <v>15504</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -995,18 +1012,18 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>42024</v>
+        <v>34244</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1014,56 +1031,56 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>123675</v>
+        <v>170510</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>77849</v>
+        <v>67111</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>15504</v>
+        <v>66577</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1071,41 +1088,41 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>26241</v>
+        <v>15734</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>15730</v>
+        <v>52096</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
@@ -1147,56 +1164,56 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>88435</v>
+        <v>35023</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>180575</v>
+        <v>56018</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>46270</v>
+        <v>26241</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1204,53 +1221,262 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>138724</v>
+        <v>161874</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>35023</v>
+        <v>88435</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2018-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>143342</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>182011</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>13016</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>20227</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>48540</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>140826</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>184564</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>23765</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>90.8</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="4">
@@ -506,42 +506,42 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>861</v>
+        <v>793</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.09999999999999</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>95.8</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.8.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -563,91 +563,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1351</v>
+        <v>867</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>870</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>3875</v>
-      </c>
-    </row>
+      <c r="B9" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="10"/>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>156943</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>156943</v>
+        <v>295999</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -660,28 +661,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>292215</v>
+        <v>34181</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>34181</v>
+        <v>449371</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -689,18 +692,18 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>445055</v>
+        <v>18721</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -708,56 +711,56 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>18721</v>
+        <v>14968</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>13533</v>
+        <v>69578</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>69578</v>
+        <v>331283</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -765,18 +768,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>329845</v>
+        <v>143808</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -784,18 +787,18 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>143808</v>
+        <v>287148</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -803,37 +806,37 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>287148</v>
+        <v>10456</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>10456</v>
+        <v>19083</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
@@ -841,94 +844,94 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>19083</v>
+        <v>96526</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>96526</v>
+        <v>12988</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>12988</v>
+        <v>18738</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>18738</v>
+        <v>42024</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>42024</v>
+        <v>123675</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -936,18 +939,18 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>123675</v>
+        <v>18967</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -962,49 +965,49 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>17529</v>
+        <v>77999</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>77849</v>
+        <v>15504</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>15504</v>
+        <v>34244</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1012,41 +1015,41 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>34244</v>
+        <v>170510</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>170510</v>
+        <v>67111</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
@@ -1057,11 +1060,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>67111</v>
+        <v>66577</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1069,41 +1072,41 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>66577</v>
+        <v>15734</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>15734</v>
+        <v>52096</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
@@ -1114,11 +1117,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>52096</v>
+        <v>59673</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1126,18 +1129,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1145,18 +1148,18 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>113652</v>
+        <v>35023</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1164,18 +1167,18 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>35023</v>
+        <v>56018</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1183,18 +1186,18 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>56018</v>
+        <v>26241</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1209,11 +1212,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>26241</v>
+        <v>161874</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1221,37 +1224,37 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>161874</v>
+        <v>88435</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>88435</v>
+        <v>144782</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1259,18 +1262,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>143342</v>
+        <v>183447</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1285,30 +1288,30 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>182011</v>
+        <v>13016</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>13016</v>
+        <v>20227</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1316,18 +1319,18 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>20227</v>
+        <v>34065</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1335,18 +1338,18 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>34065</v>
+        <v>46270</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1354,18 +1357,18 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>46270</v>
+        <v>48540</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
@@ -1373,37 +1376,37 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>48540</v>
+        <v>143426</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>140826</v>
+        <v>184564</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1418,30 +1421,30 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>184564</v>
+        <v>14221</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>14221</v>
+        <v>23765</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1449,34 +1452,15 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
+    <row r="61"/>
     <row r="62"/>
     <row r="63"/>
     <row r="64"/>
     <row r="65"/>
-    <row r="66"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>90.2</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -547,91 +547,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3</v>
+        <v>843</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>867</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>2140</v>
-      </c>
-    </row>
+      <c r="B8" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10"/>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
-    <row r="14"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>156943</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>156943</v>
+        <v>295999</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -644,28 +645,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>295999</v>
+        <v>34181</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>34181</v>
+        <v>449371</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -673,18 +676,18 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>449371</v>
+        <v>18721</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -692,56 +695,56 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>18721</v>
+        <v>14968</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>14968</v>
+        <v>69578</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>69578</v>
+        <v>331283</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -749,18 +752,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>331283</v>
+        <v>143808</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -768,18 +771,18 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>143808</v>
+        <v>287148</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -787,37 +790,37 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>287148</v>
+        <v>10456</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>10456</v>
+        <v>19083</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
@@ -825,94 +828,94 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>19083</v>
+        <v>96526</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>96526</v>
+        <v>12988</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>12988</v>
+        <v>18738</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>18738</v>
+        <v>42024</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>42024</v>
+        <v>123675</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -920,18 +923,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-09-11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>123675</v>
+        <v>18967</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -946,49 +949,49 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>18967</v>
+        <v>77999</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>77999</v>
+        <v>15504</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>15504</v>
+        <v>34244</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -996,18 +999,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>34244</v>
+        <v>67111</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1015,56 +1018,56 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>170510</v>
+        <v>66577</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>67111</v>
+        <v>15734</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>66577</v>
+        <v>59673</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1072,37 +1075,37 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>15734</v>
+        <v>113652</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>52096</v>
+        <v>35023</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1110,18 +1113,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2019-12-31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>59673</v>
+        <v>56018</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1129,18 +1132,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>113652</v>
+        <v>26241</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1148,56 +1151,56 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>35023</v>
+        <v>88435</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>56018</v>
+        <v>183447</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>26241</v>
+        <v>13016</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1205,18 +1208,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>161874</v>
+        <v>46270</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1224,18 +1227,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>88435</v>
+        <v>143426</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1243,224 +1246,15 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="n">
-        <v>144782</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="n">
-        <v>183447</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="n">
-        <v>143426</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
           <t>2018-11-25</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>2018-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="47" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,17 +483,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>106</v>
+        <v>7505</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>88.2</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -503,29 +503,29 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>764</v>
+        <v>530</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>90.5</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.8.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>97</v>
+        <v>5139</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -538,26 +538,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="8">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2085</v>
+        <v>13487</v>
       </c>
     </row>
     <row r="9"/>
@@ -628,11 +628,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>295999</v>
+        <v>11128</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>449371</v>
+        <v>486214</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14968</v>
+        <v>15827</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>331283</v>
+        <v>338880</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>143808</v>
+        <v>143869</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -797,11 +797,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>10456</v>
+        <v>19083</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -809,113 +809,113 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>19083</v>
+        <v>96526</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>96526</v>
+        <v>12988</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>12988</v>
+        <v>18738</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>18738</v>
+        <v>42024</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>42024</v>
+        <v>79953</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>123675</v>
+        <v>15504</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -923,18 +923,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.27.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>18967</v>
+        <v>35355</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -942,37 +942,37 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>77999</v>
+        <v>67111</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>15504</v>
+        <v>68450</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -980,37 +980,37 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>34244</v>
+        <v>15734</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>67111</v>
+        <v>65425</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1018,18 +1018,18 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>66577</v>
+        <v>117653</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1037,37 +1037,37 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>15734</v>
+        <v>26241</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>59673</v>
+        <v>56018</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1075,37 +1075,37 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>113652</v>
+        <v>90508</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.16.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>35023</v>
+        <v>13016</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1113,18 +1113,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>56018</v>
+        <v>52515</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1132,129 +1132,15 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>26241</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>88435</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>183447</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
           <t>2019-04-23</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8260 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="n">
-        <v>143426</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="47" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,33 +480,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7505</v>
+        <v>871</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
+          <t>NETGEAR A6100 WiFi Adapter - 1030.25.701.2017</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>530</v>
+        <v>8191</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="6">
@@ -538,609 +535,2633 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98.7</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.10.0.7</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C8" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="D8" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>13487</v>
-      </c>
-    </row>
-    <row r="9"/>
+      <c r="B9" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15890</v>
+      </c>
+    </row>
     <row r="10"/>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D17" t="n">
+        <v>582</v>
+      </c>
+      <c r="E17" t="n">
+        <v>594</v>
+      </c>
+      <c r="F17" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>34181</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>18721</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C20" t="n">
+        <v>898</v>
+      </c>
+      <c r="D20" t="n">
+        <v>303</v>
+      </c>
+      <c r="E20" t="n">
+        <v>412</v>
+      </c>
+      <c r="F20" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>15827</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>178426</v>
+      </c>
+      <c r="C21" t="n">
+        <v>575</v>
+      </c>
+      <c r="D21" t="n">
+        <v>148</v>
+      </c>
+      <c r="E21" t="n">
+        <v>415</v>
+      </c>
+      <c r="F21" t="n">
+        <v>179149</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>69578</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>54037</v>
+      </c>
+      <c r="C22" t="n">
+        <v>208</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>62</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54249</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>338880</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>580825</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1091</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F23" t="n">
+        <v>583443</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>23.30.0.6</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>143869</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4228854</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12120</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5504</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5791</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4246478</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>23.60.1.2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>287148</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>415263</v>
+      </c>
+      <c r="C25" t="n">
+        <v>488</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E25" t="n">
+        <v>485</v>
+      </c>
+      <c r="F25" t="n">
+        <v>416887</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>19083</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>135485</v>
+      </c>
+      <c r="C26" t="n">
+        <v>325</v>
+      </c>
+      <c r="D26" t="n">
+        <v>203</v>
+      </c>
+      <c r="E26" t="n">
+        <v>205</v>
+      </c>
+      <c r="F26" t="n">
+        <v>136013</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>96526</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>30421</v>
+      </c>
+      <c r="C27" t="n">
+        <v>124</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>52</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30555</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>21.50.1.1</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>12988</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>92845</v>
+      </c>
+      <c r="C28" t="n">
+        <v>419</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F28" t="n">
+        <v>93264</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>21.20.1.1</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>18738</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>32600</v>
+      </c>
+      <c r="C29" t="n">
+        <v>90</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>32693</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.0.1.5</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>42024</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>77093</v>
+      </c>
+      <c r="C30" t="n">
+        <v>170</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>127</v>
+      </c>
+      <c r="F30" t="n">
+        <v>77287</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15355</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15408</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>15504</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D32" t="n">
+        <v>507</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F32" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D33" t="n">
+        <v>583</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>67111</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C34" t="n">
+        <v>421</v>
+      </c>
+      <c r="D34" t="n">
+        <v>70</v>
+      </c>
+      <c r="E34" t="n">
+        <v>390</v>
+      </c>
+      <c r="F34" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28199</v>
+      </c>
+      <c r="C35" t="n">
+        <v>75</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>81</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28291</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>22.250.1.2</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>15734</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1335506</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1863</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1463</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1339855</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C38" t="n">
+        <v>445</v>
+      </c>
+      <c r="D38" t="n">
+        <v>530</v>
+      </c>
+      <c r="E38" t="n">
+        <v>410</v>
+      </c>
+      <c r="F38" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>26241</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E39" t="n">
+        <v>959</v>
+      </c>
+      <c r="F39" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>57477</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19</v>
+      </c>
+      <c r="D40" t="n">
+        <v>115</v>
+      </c>
+      <c r="E40" t="n">
+        <v>75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>57611</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>90508</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>67722</v>
+      </c>
+      <c r="C41" t="n">
+        <v>120</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>111</v>
+      </c>
+      <c r="F41" t="n">
+        <v>67843</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C42" t="n">
+        <v>191</v>
+      </c>
+      <c r="D42" t="n">
+        <v>30</v>
+      </c>
+      <c r="E42" t="n">
+        <v>247</v>
+      </c>
+      <c r="F42" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D43" t="n">
+        <v>656</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.1.3</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>127181</v>
+      </c>
+      <c r="C44" t="n">
+        <v>241</v>
+      </c>
+      <c r="D44" t="n">
+        <v>65</v>
+      </c>
+      <c r="E44" t="n">
+        <v>183</v>
+      </c>
+      <c r="F44" t="n">
+        <v>127487</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>23.90.1.3</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>553494</v>
+      </c>
+      <c r="C45" t="n">
+        <v>714</v>
+      </c>
+      <c r="D45" t="n">
+        <v>463</v>
+      </c>
+      <c r="E45" t="n">
+        <v>911</v>
+      </c>
+      <c r="F45" t="n">
+        <v>554671</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>23.90.0.2</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>76444</v>
+      </c>
+      <c r="C46" t="n">
+        <v>78</v>
+      </c>
+      <c r="D46" t="n">
+        <v>56</v>
+      </c>
+      <c r="E46" t="n">
+        <v>144</v>
+      </c>
+      <c r="F46" t="n">
+        <v>76578</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>23.40.0.4</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>19654</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>30</v>
+      </c>
+      <c r="E47" t="n">
+        <v>36</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19688</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>269204</v>
+      </c>
+      <c r="C48" t="n">
+        <v>337</v>
+      </c>
+      <c r="D48" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" t="n">
+        <v>632</v>
+      </c>
+      <c r="F48" t="n">
+        <v>269687</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C50" t="n">
+        <v>428</v>
+      </c>
+      <c r="D50" t="n">
+        <v>216</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F50" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C51" t="n">
+        <v>66</v>
+      </c>
+      <c r="D51" t="n">
+        <v>41</v>
+      </c>
+      <c r="E51" t="n">
+        <v>68</v>
+      </c>
+      <c r="F51" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C52" t="n">
+        <v>93</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>153</v>
+      </c>
+      <c r="F52" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C53" t="n">
+        <v>468</v>
+      </c>
+      <c r="D53" t="n">
+        <v>178</v>
+      </c>
+      <c r="E53" t="n">
+        <v>568</v>
+      </c>
+      <c r="F53" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>286753</v>
+      </c>
+      <c r="C54" t="n">
+        <v>288</v>
+      </c>
+      <c r="D54" t="n">
+        <v>107</v>
+      </c>
+      <c r="E54" t="n">
+        <v>309</v>
+      </c>
+      <c r="F54" t="n">
+        <v>287148</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>143738</v>
+      </c>
+      <c r="C55" t="n">
+        <v>67</v>
+      </c>
+      <c r="D55" t="n">
+        <v>64</v>
+      </c>
+      <c r="E55" t="n">
+        <v>187</v>
+      </c>
+      <c r="F55" t="n">
+        <v>143869</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>22.200.0.6</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>96477</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>32</v>
+      </c>
+      <c r="E56" t="n">
+        <v>104</v>
+      </c>
+      <c r="F56" t="n">
+        <v>96526</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15712</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>42</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15734</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>69513</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>85</v>
+      </c>
+      <c r="F58" t="n">
+        <v>69578</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>338679</v>
+      </c>
+      <c r="C59" t="n">
+        <v>176</v>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>460</v>
+      </c>
+      <c r="F59" t="n">
+        <v>338880</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>18722</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26</v>
+      </c>
+      <c r="F60" t="n">
+        <v>18738</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>34161</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>46</v>
+      </c>
+      <c r="F61" t="n">
+        <v>34181</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>18710</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20</v>
+      </c>
+      <c r="F62" t="n">
+        <v>18721</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>90450</v>
+      </c>
+      <c r="C63" t="n">
+        <v>33</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" t="n">
+        <v>161</v>
+      </c>
+      <c r="F63" t="n">
+        <v>90508</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B64" t="n">
+        <v>52511</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>43</v>
+      </c>
+      <c r="F64" t="n">
         <v>52515</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>100</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
     </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>13010</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13016</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>21.30.4.1</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>44</v>
+      </c>
+      <c r="F66" t="n">
+        <v>26241</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>68439</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>97</v>
+      </c>
+      <c r="F67" t="n">
+        <v>68450</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>67098</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>145</v>
+      </c>
+      <c r="F68" t="n">
+        <v>67111</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>72</v>
+      </c>
+      <c r="F69" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>15504</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>18</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15504</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>22.70.0.6</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>100</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>15823</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>60</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15827</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>23.20.1.1</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>156943</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>158</v>
+      </c>
+      <c r="F72" t="n">
+        <v>156943</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>22.0.1.5</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>12986</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>25</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12988</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>22.100.0.3</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>42024</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>45</v>
+      </c>
+      <c r="F74" t="n">
+        <v>42024</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>19083</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23</v>
+      </c>
+      <c r="F75" t="n">
+        <v>19083</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>22.170.2.1</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>28</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100</v>
+      </c>
+      <c r="J76" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" t="n">
+        <v>62</v>
+      </c>
+      <c r="F77" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>100</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C78" t="n">
+        <v>24</v>
+      </c>
+      <c r="D78" t="n">
+        <v>14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>151</v>
+      </c>
+      <c r="F78" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C79" t="n">
+        <v>11</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>80</v>
+      </c>
+      <c r="F79" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Ryder_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>871</v>
+        <v>1619</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>89.8</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8191</v>
+        <v>10562</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.90000000000001</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="5">
@@ -519,42 +519,42 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5137</v>
+        <v>7237</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>96.3</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>440</v>
+        <v>1679</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>96.90000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1128</v>
+        <v>251</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15890</v>
+        <v>21471</v>
       </c>
     </row>
     <row r="10"/>
@@ -653,23 +653,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C17" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D17" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E17" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F17" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -686,30 +686,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C18" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D18" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E18" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F18" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -726,30 +726,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C19" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D19" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E19" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F19" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -766,7 +766,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C20" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D20" t="n">
         <v>303</v>
       </c>
       <c r="E20" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F20" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -813,32 +813,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178426</v>
+        <v>381616</v>
       </c>
       <c r="C21" t="n">
-        <v>575</v>
+        <v>1106</v>
       </c>
       <c r="D21" t="n">
-        <v>148</v>
+        <v>582</v>
       </c>
       <c r="E21" t="n">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="F21" t="n">
-        <v>179149</v>
+        <v>383304</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -846,30 +846,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54037</v>
+        <v>591074</v>
       </c>
       <c r="C22" t="n">
-        <v>208</v>
+        <v>1100</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1527</v>
       </c>
       <c r="E22" t="n">
-        <v>62</v>
+        <v>1267</v>
       </c>
       <c r="F22" t="n">
-        <v>54249</v>
+        <v>593701</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -886,30 +886,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580825</v>
+        <v>84751</v>
       </c>
       <c r="C23" t="n">
-        <v>1091</v>
+        <v>312</v>
       </c>
       <c r="D23" t="n">
-        <v>1527</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1250</v>
+        <v>105</v>
       </c>
       <c r="F23" t="n">
-        <v>583443</v>
+        <v>85067</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -926,39 +926,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4228854</v>
+        <v>185718</v>
       </c>
       <c r="C24" t="n">
-        <v>12120</v>
+        <v>616</v>
       </c>
       <c r="D24" t="n">
-        <v>5504</v>
+        <v>148</v>
       </c>
       <c r="E24" t="n">
-        <v>5791</v>
+        <v>443</v>
       </c>
       <c r="F24" t="n">
-        <v>4246478</v>
+        <v>186482</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>23.110.0.5</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -966,30 +966,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415263</v>
+        <v>4430490</v>
       </c>
       <c r="C25" t="n">
-        <v>488</v>
+        <v>12730</v>
       </c>
       <c r="D25" t="n">
-        <v>1136</v>
+        <v>5504</v>
       </c>
       <c r="E25" t="n">
-        <v>485</v>
+        <v>5946</v>
       </c>
       <c r="F25" t="n">
-        <v>416887</v>
+        <v>4448724</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1006,30 +1006,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135485</v>
+        <v>415263</v>
       </c>
       <c r="C26" t="n">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="D26" t="n">
-        <v>203</v>
+        <v>1136</v>
       </c>
       <c r="E26" t="n">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="F26" t="n">
-        <v>136013</v>
+        <v>416887</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1046,30 +1046,30 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30421</v>
+        <v>15942</v>
       </c>
       <c r="C27" t="n">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>30555</v>
+        <v>16002</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1086,30 +1086,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92845</v>
+        <v>145537</v>
       </c>
       <c r="C28" t="n">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E28" t="n">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="F28" t="n">
-        <v>93264</v>
+        <v>146065</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>21.20.1.1</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1126,30 +1126,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32600</v>
+        <v>92845</v>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>419</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F29" t="n">
-        <v>32693</v>
+        <v>93264</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1158,36 +1158,38 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.0.1.5</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v/>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77093</v>
+        <v>32600</v>
       </c>
       <c r="C30" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>77287</v>
+        <v>32693</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1196,47 +1198,45 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>99.7</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
+      <c r="J30" t="n">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15355</v>
+        <v>335610</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>530</v>
       </c>
       <c r="E31" t="n">
-        <v>62</v>
+        <v>414</v>
       </c>
       <c r="F31" t="n">
-        <v>15408</v>
+        <v>336635</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>733616</v>
+        <v>750778</v>
       </c>
       <c r="C32" t="n">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="D32" t="n">
         <v>507</v>
       </c>
       <c r="E32" t="n">
-        <v>1266</v>
+        <v>1290</v>
       </c>
       <c r="F32" t="n">
-        <v>735770</v>
+        <v>752940</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1291,23 +1291,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1159949</v>
+        <v>1021828</v>
       </c>
       <c r="C33" t="n">
-        <v>2346</v>
+        <v>2379</v>
       </c>
       <c r="D33" t="n">
-        <v>583</v>
+        <v>1006</v>
       </c>
       <c r="E33" t="n">
-        <v>1850</v>
+        <v>1021</v>
       </c>
       <c r="F33" t="n">
-        <v>1162878</v>
+        <v>1025213</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1324,30 +1324,30 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192287</v>
+        <v>100380</v>
       </c>
       <c r="C34" t="n">
-        <v>421</v>
+        <v>264</v>
       </c>
       <c r="D34" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="F34" t="n">
-        <v>192778</v>
+        <v>100674</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1364,70 +1364,68 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28199</v>
+        <v>1336938</v>
       </c>
       <c r="C35" t="n">
-        <v>75</v>
+        <v>2486</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>1863</v>
       </c>
       <c r="E35" t="n">
-        <v>81</v>
+        <v>1464</v>
       </c>
       <c r="F35" t="n">
-        <v>28291</v>
+        <v>1341287</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22.250.1.2</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>99.7</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="J35" t="n">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1335506</v>
+        <v>77093</v>
       </c>
       <c r="C36" t="n">
-        <v>2486</v>
+        <v>170</v>
       </c>
       <c r="D36" t="n">
-        <v>1863</v>
+        <v>24</v>
       </c>
       <c r="E36" t="n">
-        <v>1463</v>
+        <v>127</v>
       </c>
       <c r="F36" t="n">
-        <v>1339855</v>
+        <v>77287</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1436,45 +1434,47 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>99.7</v>
       </c>
-      <c r="J36" t="n">
-        <v/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1499724</v>
+        <v>31411</v>
       </c>
       <c r="C37" t="n">
-        <v>4069</v>
+        <v>86</v>
       </c>
       <c r="D37" t="n">
-        <v>1136</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>2789</v>
+        <v>86</v>
       </c>
       <c r="F37" t="n">
-        <v>1504929</v>
+        <v>31514</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.250.1.2</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1482,30 +1482,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-08-06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>330685</v>
+        <v>195464</v>
       </c>
       <c r="C38" t="n">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D38" t="n">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="E38" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F38" t="n">
-        <v>331660</v>
+        <v>195964</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1522,47 +1522,47 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938125</v>
+        <v>19655</v>
       </c>
       <c r="C39" t="n">
-        <v>2222</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>1006</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>959</v>
+        <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>941353</v>
+        <v>19689</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57477</v>
+        <v>57999</v>
       </c>
       <c r="C40" t="n">
         <v>19</v>
@@ -1582,10 +1582,10 @@
         <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="n">
-        <v>57611</v>
+        <v>58133</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1609,32 +1609,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67722</v>
+        <v>1833336</v>
       </c>
       <c r="C41" t="n">
-        <v>120</v>
+        <v>2376</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="E41" t="n">
-        <v>111</v>
+        <v>1899</v>
       </c>
       <c r="F41" t="n">
-        <v>67843</v>
+        <v>1836368</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22.140.0.3</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1642,30 +1642,30 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95095</v>
+        <v>1237156</v>
       </c>
       <c r="C42" t="n">
-        <v>191</v>
+        <v>2499</v>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>583</v>
       </c>
       <c r="E42" t="n">
-        <v>247</v>
+        <v>1951</v>
       </c>
       <c r="F42" t="n">
-        <v>95316</v>
+        <v>1240238</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1682,39 +1682,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1731609</v>
+        <v>67832</v>
       </c>
       <c r="C43" t="n">
-        <v>2149</v>
+        <v>121</v>
       </c>
       <c r="D43" t="n">
-        <v>656</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1812</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>1734414</v>
+        <v>67954</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>22.140.0.3</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
@@ -1769,23 +1769,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>553494</v>
+        <v>78476</v>
       </c>
       <c r="C45" t="n">
-        <v>714</v>
+        <v>78</v>
       </c>
       <c r="D45" t="n">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="E45" t="n">
-        <v>911</v>
+        <v>146</v>
       </c>
       <c r="F45" t="n">
-        <v>554671</v>
+        <v>78610</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23.90.0.2</t>
+          <t>23.40.0.4</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1802,39 +1802,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76444</v>
+        <v>23413</v>
       </c>
       <c r="C46" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>76578</v>
+        <v>23462</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23.40.0.4</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1842,39 +1842,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>19654</v>
+        <v>63994</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F47" t="n">
-        <v>19688</v>
+        <v>64101</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1882,39 +1882,39 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>269204</v>
+        <v>81417</v>
       </c>
       <c r="C48" t="n">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="D48" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>632</v>
+        <v>158</v>
       </c>
       <c r="F48" t="n">
-        <v>269687</v>
+        <v>81549</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -1922,39 +1922,39 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1296766</v>
+        <v>301043</v>
       </c>
       <c r="C49" t="n">
-        <v>1864</v>
+        <v>388</v>
       </c>
       <c r="D49" t="n">
-        <v>1075</v>
+        <v>146</v>
       </c>
       <c r="E49" t="n">
-        <v>2887</v>
+        <v>702</v>
       </c>
       <c r="F49" t="n">
-        <v>1299705</v>
+        <v>301577</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -1962,30 +1962,30 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>389283</v>
+        <v>1400496</v>
       </c>
       <c r="C50" t="n">
-        <v>428</v>
+        <v>2029</v>
       </c>
       <c r="D50" t="n">
-        <v>216</v>
+        <v>1075</v>
       </c>
       <c r="E50" t="n">
-        <v>1233</v>
+        <v>3210</v>
       </c>
       <c r="F50" t="n">
-        <v>389927</v>
+        <v>1403600</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2002,39 +2002,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>63994</v>
+        <v>584784</v>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>827</v>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>463</v>
       </c>
       <c r="E51" t="n">
-        <v>68</v>
+        <v>963</v>
       </c>
       <c r="F51" t="n">
-        <v>64101</v>
+        <v>586074</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2042,30 +2042,30 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>79835</v>
+        <v>393045</v>
       </c>
       <c r="C52" t="n">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="E52" t="n">
-        <v>153</v>
+        <v>1251</v>
       </c>
       <c r="F52" t="n">
-        <v>79953</v>
+        <v>393714</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2074,15 +2074,15 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
@@ -2093,19 +2093,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>485568</v>
+        <v>509717</v>
       </c>
       <c r="C53" t="n">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="D53" t="n">
         <v>178</v>
       </c>
       <c r="E53" t="n">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F53" t="n">
-        <v>486214</v>
+        <v>510417</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2129,63 +2129,61 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>286753</v>
+        <v>11362</v>
       </c>
       <c r="C54" t="n">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="F54" t="n">
-        <v>287148</v>
+        <v>11369</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="J54" t="n">
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>143738</v>
+        <v>69513</v>
       </c>
       <c r="C55" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D55" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F55" t="n">
-        <v>143869</v>
+        <v>69578</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2194,7 +2192,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>22.200.0.6</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2202,30 +2200,30 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>96477</v>
+        <v>16252</v>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F56" t="n">
-        <v>96526</v>
+        <v>16274</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2234,7 +2232,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2242,30 +2240,30 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15712</v>
+        <v>305670</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E57" t="n">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="F57" t="n">
-        <v>15734</v>
+        <v>306081</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2274,7 +2272,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2282,30 +2280,30 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>69513</v>
+        <v>153442</v>
       </c>
       <c r="C58" t="n">
+        <v>67</v>
+      </c>
+      <c r="D58" t="n">
         <v>64</v>
       </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
       <c r="E58" t="n">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="F58" t="n">
-        <v>69578</v>
+        <v>153573</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2314,7 +2312,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>22.200.0.6</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2322,7 +2320,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2331,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>338679</v>
+        <v>348742</v>
       </c>
       <c r="C59" t="n">
         <v>176</v>
@@ -2342,10 +2340,10 @@
         <v>25</v>
       </c>
       <c r="E59" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F59" t="n">
-        <v>338880</v>
+        <v>348943</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2369,23 +2367,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18722</v>
+        <v>53252</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F60" t="n">
-        <v>18738</v>
+        <v>53300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2394,7 +2392,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2402,30 +2400,30 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>34161</v>
+        <v>18722</v>
       </c>
       <c r="C61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F61" t="n">
-        <v>34181</v>
+        <v>18738</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2434,7 +2432,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2442,30 +2440,30 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18710</v>
+        <v>90450</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="F62" t="n">
-        <v>18721</v>
+        <v>90508</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2474,7 +2472,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2482,30 +2480,30 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90450</v>
+        <v>13010</v>
       </c>
       <c r="C63" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>90508</v>
+        <v>13016</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2514,15 +2512,15 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>21.30.4.1</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2531,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>52511</v>
+        <v>62512</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -2542,10 +2540,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F64" t="n">
-        <v>52515</v>
+        <v>62516</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2569,23 +2567,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13010</v>
+        <v>26239</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F65" t="n">
-        <v>13016</v>
+        <v>26241</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2594,7 +2592,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>21.30.4.1</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -2602,30 +2600,30 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26239</v>
+        <v>68439</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F66" t="n">
-        <v>26241</v>
+        <v>68450</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2634,7 +2632,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.10.0.7</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -2642,30 +2640,30 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>68439</v>
+        <v>104290</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E67" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F67" t="n">
-        <v>68450</v>
+        <v>104341</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2674,7 +2672,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>22.10.0.7</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -2682,7 +2680,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
@@ -2729,32 +2727,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>65422</v>
+        <v>15506</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>65425</v>
+        <v>15506</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>22.70.0.6</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -2762,30 +2760,30 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15504</v>
+        <v>15823</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F70" t="n">
-        <v>15504</v>
+        <v>15827</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2794,7 +2792,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>22.70.0.6</t>
+          <t>23.20.1.1</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -2802,30 +2800,30 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15823</v>
+        <v>156943</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F71" t="n">
-        <v>15827</v>
+        <v>156943</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2834,38 +2832,36 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>23.20.1.1</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>100</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
-        </is>
+      <c r="J71" t="n">
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>156943</v>
+        <v>12986</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F72" t="n">
-        <v>156943</v>
+        <v>12988</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2874,36 +2870,38 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>22.0.1.5</t>
+          <t>22.100.0.3</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>100</v>
       </c>
-      <c r="J72" t="n">
-        <v/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12986</v>
+        <v>42439</v>
       </c>
       <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="n">
-        <v>2</v>
-      </c>
       <c r="E73" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F73" t="n">
-        <v>12988</v>
+        <v>42440</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2912,7 +2910,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>22.100.0.3</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -2920,18 +2918,18 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>42024</v>
+        <v>19083</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2940,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F74" t="n">
-        <v>42024</v>
+        <v>19083</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2952,7 +2950,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.170.2.1</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -2960,39 +2958,39 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>19083</v>
+        <v>75454</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F75" t="n">
-        <v>19083</v>
+        <v>75457</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax210 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>22.170.2.1</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3000,30 +2998,30 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11124</v>
+        <v>56003</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F76" t="n">
-        <v>11128</v>
+        <v>56018</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3032,36 +3030,38 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>100</v>
       </c>
-      <c r="J76" t="n">
-        <v/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>56003</v>
+        <v>121310</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E77" t="n">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="F77" t="n">
-        <v>56018</v>
+        <v>121350</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>117615</v>
+        <v>35363</v>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F78" t="n">
-        <v>117653</v>
+        <v>35377</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3110,53 +3110,13 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>100</v>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>80</v>
-      </c>
-      <c r="F79" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>100</v>
-      </c>
-      <c r="J79" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
